--- a/biology/Biochimie/Ortho-nitrophényl-β-galactoside/Ortho-nitrophényl-β-galactoside.xlsx
+++ b/biology/Biochimie/Ortho-nitrophényl-β-galactoside/Ortho-nitrophényl-β-galactoside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ortho-nitroph%C3%A9nyl-%CE%B2-galactoside</t>
+          <t>Ortho-nitrophényl-β-galactoside</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'orthonitrophényl-β-galactoside (ou 2-nitrophényl-β-D-galactopyrannoside, ONPG) est un hétéroside de type bêta-galactoside, dont l'aglycone est l'orthonitrophénol (ONP) et la partie glucidique est constituée par un galactose.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ortho-nitroph%C3%A9nyl-%CE%B2-galactoside</t>
+          <t>Ortho-nitrophényl-β-galactoside</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Microbiologie : La recherche de la ß-galactosidase dans l'identification d'une bactérie est réalisée avec le test ONPG. Ce test consiste à incuber la souche bactérienne en présence d'ONPG. L'apparition d'une couleur jaune (ONP) indique la présence de la β-galactosidase. Ce test est intégré à la plupart des systèmes d'identification miniaturisés (micro-galeries).
 Enzymologie : L'ONPG est utilisé pour mesurer l'activité catalytique de la β-galactosidase.
